--- a/productos/data/info_productos.xlsx
+++ b/productos/data/info_productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\Proyecto_NoCountry_\productos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4648C195-3A2D-4011-8F7D-175B7C9A2ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7E146-093C-4149-B2EA-66A80A563E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9B5A0CAD-8E9A-40A2-B336-F684435CEB7A}"/>
+    <workbookView xWindow="7485" yWindow="1905" windowWidth="15300" windowHeight="7875" xr2:uid="{9B5A0CAD-8E9A-40A2-B336-F684435CEB7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>updated</t>
+  </si>
+  <si>
+    <t>producto/ea8cab80663e4609afce43273e67f145.jpg</t>
+  </si>
+  <si>
+    <t>producto/fe6bc0793dfc4a36a991e7cbf9d66e3a.jpg</t>
+  </si>
+  <si>
+    <t>producto/0079d44de2694896816aa8cbe7cfa85a.jpg</t>
+  </si>
+  <si>
+    <t>producto/ba6ed9f5bff641d788699e769b65ffc3.jpg</t>
+  </si>
+  <si>
+    <t>producto/b75bcba1cfba4820bdb663f603bc15ce.jpg</t>
+  </si>
+  <si>
+    <t>producto/953bfa40d3ca4fe1b951ed5ee5ebf9c0.jpg</t>
+  </si>
+  <si>
+    <t>producto/b4e1b461de024fd4ae27799429e216b9.jpg</t>
   </si>
 </sst>
 </file>
@@ -527,7 +548,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +556,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,6 +599,9 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
       <c r="E2">
         <v>100</v>
       </c>
@@ -595,6 +619,9 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
       <c r="E3">
         <v>100</v>
       </c>
@@ -612,6 +639,9 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
       <c r="E4">
         <v>100</v>
       </c>
@@ -629,6 +659,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5">
         <v>100</v>
       </c>
@@ -646,6 +679,9 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
       <c r="E6">
         <v>100</v>
       </c>
@@ -663,6 +699,9 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
       <c r="E7">
         <v>100</v>
       </c>
@@ -679,6 +718,9 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
       </c>
       <c r="E8">
         <v>100</v>

--- a/productos/data/info_productos.xlsx
+++ b/productos/data/info_productos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\Proyecto_NoCountry_\productos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7E146-093C-4149-B2EA-66A80A563E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62B160-E1D1-44E0-8305-78B96C9A6D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="1905" windowWidth="15300" windowHeight="7875" xr2:uid="{9B5A0CAD-8E9A-40A2-B336-F684435CEB7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9B5A0CAD-8E9A-40A2-B336-F684435CEB7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>producto/b4e1b461de024fd4ae27799429e216b9.jpg</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/34/7e/c8/347ec870171fcbb4e9bf8c6cb8b4455d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/474x/80/ec/dc/80ecdc5f0bf6fd0f67ce693b6fbcb44b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/dd/6a/7b/dd6a7b68fdbc0e6edf9b06f0c40bc59c.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/474x/37/e0/63/37e06365d778a110d599fb749ee869ae.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/474x/51/73/38/5173380309f60e050700cfba4dcdce01.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/d5/32/46/d532467f7a35ede9b88665cd584996b8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/79/ad/e3/79ade310b5a1224e9eb505abac8900a6.jpg</t>
   </si>
 </sst>
 </file>
@@ -545,22 +569,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086459A9-4999-468B-8E67-A1D21AF32001}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -574,25 +599,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -602,17 +630,20 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
-        <v>100</v>
+      <c r="E2" t="s">
+        <v>35</v>
       </c>
       <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -622,17 +653,20 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>100</v>
+      <c r="E3" t="s">
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -642,17 +676,20 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>100</v>
+      <c r="E4" t="s">
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -662,17 +699,20 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>100</v>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -682,17 +722,20 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>100</v>
+      <c r="E6" t="s">
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -702,17 +745,20 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
-        <v>100</v>
+      <c r="E7" t="s">
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -722,13 +768,16 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8">
-        <v>100</v>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
     </row>

--- a/productos/data/info_productos.xlsx
+++ b/productos/data/info_productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\Proyecto_NoCountry_\productos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62B160-E1D1-44E0-8305-78B96C9A6D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1137441-05A2-42B5-88DD-D9AF0FFBF95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9B5A0CAD-8E9A-40A2-B336-F684435CEB7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>available</t>
   </si>
   <si>
-    <t>Comida</t>
-  </si>
-  <si>
     <t>Bebida</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Hamburguesa</t>
   </si>
   <si>
-    <t>Empanadas</t>
-  </si>
-  <si>
     <t>Coca Cola</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>producto/fe6bc0793dfc4a36a991e7cbf9d66e3a.jpg</t>
   </si>
   <si>
-    <t>producto/0079d44de2694896816aa8cbe7cfa85a.jpg</t>
-  </si>
-  <si>
     <t>producto/ba6ed9f5bff641d788699e769b65ffc3.jpg</t>
   </si>
   <si>
@@ -145,6 +136,120 @@
   </si>
   <si>
     <t>https://i.pinimg.com/564x/79/ad/e3/79ade310b5a1224e9eb505abac8900a6.jpg</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>Esta es solo una descripción por defecto para nuestro producto a modo de ejemplo</t>
+  </si>
+  <si>
+    <t>seller_id</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/dc/37/9b/dc379b2b2a7223f92d44f215133d340c.jpg</t>
+  </si>
+  <si>
+    <t>Duraznos</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/67/ff/04/67ff0431ed4ecbf10ebed90c15eb6d0a.jpg</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/12/ab/66/12ab66a80e7ae76424d6012b51bde9eb.jpg</t>
+  </si>
+  <si>
+    <t>Facturas Dulce de Leche</t>
+  </si>
+  <si>
+    <t>Facturas Surtidas</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/21/31/9b/21319b0bc29cada50960f851b717569d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/3d/f3/8d/3df38d35dbc01ed9a295980fcc348867.jpg</t>
+  </si>
+  <si>
+    <t>Pastas</t>
+  </si>
+  <si>
+    <t>Tallarines Frescos</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/4c/b6/38/4cb638e94231d063847586489bfb6dca.jpg</t>
+  </si>
+  <si>
+    <t>Queso Cremoso La Serenisima</t>
+  </si>
+  <si>
+    <t>Supermercado</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/97/78/1d/97781d0e1a766535a74394845f75379c.jpg</t>
+  </si>
+  <si>
+    <t>Pata de Muslo Pollo</t>
+  </si>
+  <si>
+    <t>Carnicería</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/9c/84/a9/9c84a9d215de50171711d4f16efafadc.jpg</t>
+  </si>
+  <si>
+    <t>Pollo a La Parrilla</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/72/79/ea/7279ea767990df20caf79e8c73082603.jpg</t>
+  </si>
+  <si>
+    <t>Pollo Frito</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>Empanadas Criollas</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/b2/d4/40/b2d440d6e70278fb40544428466a6328.jpg</t>
+  </si>
+  <si>
+    <t>Empanadas Arabes</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/ef/35/54/ef3554083f0e2003f97ccc1c6f5110aa.jpg</t>
+  </si>
+  <si>
+    <t>Papas Fritas</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/236x/88/61/6d/88616d7730245a8b2fe3ee4124211dd3.jpg</t>
+  </si>
+  <si>
+    <t>Empanadas Jamon y Queso</t>
+  </si>
+  <si>
+    <t>Lácteos</t>
+  </si>
+  <si>
+    <t>Verdulería</t>
+  </si>
+  <si>
+    <t>Facturas</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Comida Rápida</t>
+  </si>
+  <si>
+    <t>Parrilla</t>
   </si>
 </sst>
 </file>
@@ -243,18 +348,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,219 +708,818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086459A9-4999-468B-8E67-A1D21AF32001}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="13" customWidth="1"/>
+    <col min="2" max="3" width="19.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16" style="13" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="16" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="13"/>
+    <col min="13" max="13" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="16">
+        <v>250</v>
+      </c>
+      <c r="H2" s="16">
+        <v>20</v>
+      </c>
+      <c r="I2" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G3" s="16">
+        <v>200</v>
+      </c>
+      <c r="H3" s="16">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="16">
+        <v>250</v>
+      </c>
+      <c r="H4" s="16">
+        <v>20</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="16">
+        <v>200</v>
+      </c>
+      <c r="H5" s="16">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="16">
+        <v>200</v>
+      </c>
+      <c r="H6" s="16">
+        <v>20</v>
+      </c>
+      <c r="I6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16">
+        <v>200</v>
+      </c>
+      <c r="H7" s="16">
+        <v>20</v>
+      </c>
+      <c r="I7" s="16">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="11">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="16">
+        <v>350</v>
+      </c>
+      <c r="H8" s="16">
+        <v>20</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="11">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16">
+        <v>300</v>
+      </c>
+      <c r="H9" s="16">
+        <v>20</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="16">
+        <v>350</v>
+      </c>
+      <c r="H10" s="16">
+        <v>20</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="16">
+        <v>300</v>
+      </c>
+      <c r="H11" s="16">
+        <v>20</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="16">
+        <v>200</v>
+      </c>
+      <c r="H12" s="16">
+        <v>20</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="16">
+        <v>200</v>
+      </c>
+      <c r="H13" s="16">
+        <v>20</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="16">
+        <v>400</v>
+      </c>
+      <c r="H14" s="16">
+        <v>10</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="16">
+        <v>400</v>
+      </c>
+      <c r="H15" s="16">
+        <v>10</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="16">
+        <v>400</v>
+      </c>
+      <c r="H16" s="16">
+        <v>10</v>
+      </c>
+      <c r="I16" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="16">
+        <v>400</v>
+      </c>
+      <c r="H17" s="16">
+        <v>10</v>
+      </c>
+      <c r="I17" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="13">
+        <v>5</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="16">
+        <v>300</v>
+      </c>
+      <c r="H18" s="16">
+        <v>10</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="13">
+        <v>5</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="16">
+        <v>300</v>
+      </c>
+      <c r="H19" s="16">
+        <v>10</v>
+      </c>
+      <c r="I19" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="13">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="E20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="16">
+        <v>400</v>
+      </c>
+      <c r="H20" s="16">
+        <v>10</v>
+      </c>
+      <c r="I20" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="13">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="16">
+        <v>450</v>
+      </c>
+      <c r="H21" s="16">
+        <v>10</v>
+      </c>
+      <c r="I21" s="16">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="13">
+        <v>7</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="16">
+        <v>400</v>
+      </c>
+      <c r="H22" s="16">
+        <v>10</v>
+      </c>
+      <c r="I22" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="13">
+        <v>10</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="16">
+        <v>500</v>
+      </c>
+      <c r="H23" s="16">
+        <v>10</v>
+      </c>
+      <c r="I23" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="13">
+        <v>10</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="16">
+        <v>400</v>
+      </c>
+      <c r="H24" s="16">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2">
+      <c r="I24" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="13">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="16">
         <v>500</v>
       </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>450</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
+      <c r="H25" s="16">
+        <v>10</v>
+      </c>
+      <c r="I25" s="16">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="13">
+        <v>10</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="16">
         <v>400</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>350</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>250</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="H8">
+      <c r="H26" s="16">
+        <v>10</v>
+      </c>
+      <c r="I26" s="16">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>